--- a/emx_rdconnect_test.xlsx
+++ b/emx_rdconnect_test.xlsx
@@ -10,7 +10,7 @@
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="rd_Disease Areas (ICD10)" sheetId="4" r:id="rId4"/>
+    <sheet name="rd_Disease_Areas__ICD10_" sheetId="4" r:id="rId4"/>
     <sheet name="rd_address" sheetId="5" r:id="rId5"/>
     <sheet name="rd_basic_info" sheetId="6" r:id="rId6"/>
     <sheet name="rd_bb_accessibility" sheetId="7" r:id="rId7"/>
